--- a/Data/Digital Collab/Teambition_Records.xlsx
+++ b/Data/Digital Collab/Teambition_Records.xlsx
@@ -4,18 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1328</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="338">
   <si>
     <t>王德宇 Woody Wang</t>
   </si>
@@ -381,6 +388,692 @@
   </si>
   <si>
     <t>Activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾尼亚尔·艾力汗木</t>
+  </si>
+  <si>
+    <t>杜迎霜</t>
+  </si>
+  <si>
+    <t>马晓健</t>
+  </si>
+  <si>
+    <t>施孝儒</t>
+  </si>
+  <si>
+    <t>Anial Alihanm</t>
+  </si>
+  <si>
+    <t>Chen Yipeng</t>
+  </si>
+  <si>
+    <t>Chen Yu</t>
+  </si>
+  <si>
+    <t>Dan Ziyu</t>
+  </si>
+  <si>
+    <t>Du Yingshuang</t>
+  </si>
+  <si>
+    <t>Gao Chang</t>
+  </si>
+  <si>
+    <t>Gu Shaohong</t>
+  </si>
+  <si>
+    <t>Hao Yukun</t>
+  </si>
+  <si>
+    <t>He Qi</t>
+  </si>
+  <si>
+    <t>Huang Weizhi</t>
+  </si>
+  <si>
+    <t>Huang Xinyi</t>
+  </si>
+  <si>
+    <t>Li Kaiwen</t>
+  </si>
+  <si>
+    <t>Li Qizhong</t>
+  </si>
+  <si>
+    <t>Li Qiang</t>
+  </si>
+  <si>
+    <t>Li Siyu</t>
+  </si>
+  <si>
+    <t>Li Tengfei</t>
+  </si>
+  <si>
+    <t>Liu Jiahui</t>
+  </si>
+  <si>
+    <t>Liu Siqi</t>
+  </si>
+  <si>
+    <t>Lu Shenghao</t>
+  </si>
+  <si>
+    <t>Ma Xiaojian</t>
+  </si>
+  <si>
+    <t>The door days</t>
+  </si>
+  <si>
+    <t>Ni Ruichen</t>
+  </si>
+  <si>
+    <t>Shi Xiaoru</t>
+  </si>
+  <si>
+    <t>Sun Jingyuan</t>
+  </si>
+  <si>
+    <t>Wang Qian</t>
+  </si>
+  <si>
+    <t>Wang Liyan</t>
+  </si>
+  <si>
+    <t>Wu Jun</t>
+  </si>
+  <si>
+    <t>Xiao Changming</t>
+  </si>
+  <si>
+    <t>Xiao Feiyu</t>
+  </si>
+  <si>
+    <t>Yang Haoguang</t>
+  </si>
+  <si>
+    <t>Yang Qi</t>
+  </si>
+  <si>
+    <t>Zhou Datong</t>
+  </si>
+  <si>
+    <t>Zhou Haochen</t>
+  </si>
+  <si>
+    <t>Zhou Yizhuang</t>
+  </si>
+  <si>
+    <t>Zhou Zisong</t>
+  </si>
+  <si>
+    <t>Zhu Zilin</t>
+  </si>
+  <si>
+    <t>Zou Xu</t>
+  </si>
+  <si>
+    <t>anyea14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>chen-yp13@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>yu-chen14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>shanz14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>dys14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>gaochang13@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>gush14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>haoyk14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>kevin27fly@outlook.com</t>
+  </si>
+  <si>
+    <t>huangwz14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>hxy176@126.com</t>
+  </si>
+  <si>
+    <t>lkw14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>liqz14@ails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>liq14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>lisy14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>ltf14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>liujiahu14@mails.tsinghua.edu</t>
+  </si>
+  <si>
+    <t>sq-liu14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>lu-sh14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>maxj4@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>mtl14@mails.tsinghua.edu.com</t>
+  </si>
+  <si>
+    <t>nrc14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>sjy14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>qian-wang14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>wang-ly13@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>j-wu14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>xiaoc14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>xiao-14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>yhg14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>yq14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>zdt14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>zhouhc14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>zhouyz14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>zzs14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>zhuzl14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>zoux14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>colet</t>
+  </si>
+  <si>
+    <t>Frank Alexander</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Lingle</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>liz</t>
+  </si>
+  <si>
+    <t>Anakin Li</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Raymore</t>
+  </si>
+  <si>
+    <t>Amos</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Johnny Woods</t>
+  </si>
+  <si>
+    <t>John Yang</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Dalton Chou</t>
+  </si>
+  <si>
+    <t>Rodulf</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>ZOU Xu</t>
+  </si>
+  <si>
+    <t>ben koo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinaxueyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sxr14@mails.tsinghua.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of files changed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of lines added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of lines deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of merges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THU_XLP_dys</t>
+  </si>
+  <si>
+    <t>Yipeng</t>
+  </si>
+  <si>
+    <t>zhuzilin</t>
+  </si>
+  <si>
+    <t>zzs</t>
+  </si>
+  <si>
+    <t>THU_Team0</t>
+  </si>
+  <si>
+    <t>tangw14</t>
+  </si>
+  <si>
+    <t>THU_XLP_HaoYukun</t>
+  </si>
+  <si>
+    <t>THU_XLP_GaoChang</t>
+  </si>
+  <si>
+    <t>THU_XLP_LJH</t>
+  </si>
+  <si>
+    <t>lisy14</t>
+  </si>
+  <si>
+    <t>THU_2015_XLP_TeamC</t>
+  </si>
+  <si>
+    <t>lingyunjuren</t>
+  </si>
+  <si>
+    <t>LiuSiqi14</t>
+  </si>
+  <si>
+    <t>alimbeko</t>
+  </si>
+  <si>
+    <t>sjy14</t>
+  </si>
+  <si>
+    <t>MenTianli</t>
+  </si>
+  <si>
+    <t>THU_XLP_WangLiyan</t>
+  </si>
+  <si>
+    <t>GuShaoHong</t>
+  </si>
+  <si>
+    <t>JohnnyWoods</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Oeanneo</t>
+  </si>
+  <si>
+    <t>ShanZiyu</t>
+  </si>
+  <si>
+    <t>THU_XLP_hxy</t>
+  </si>
+  <si>
+    <t>THU_XLP_liqizhong</t>
+  </si>
+  <si>
+    <t>WangQian</t>
+  </si>
+  <si>
+    <t>qian-wang14</t>
+  </si>
+  <si>
+    <t>xiaoc14</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>JohnYang_1996</t>
+  </si>
+  <si>
+    <t>LiKaiwen</t>
+  </si>
+  <si>
+    <t>NiRuichen</t>
+  </si>
+  <si>
+    <t>Toyhouse</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>evelynguan</t>
+  </si>
+  <si>
+    <t>kevin27fly</t>
+  </si>
+  <si>
+    <t>likaiwen123</t>
+  </si>
+  <si>
+    <t>lu-sh14</t>
+  </si>
+  <si>
+    <t>qhxfy</t>
+  </si>
+  <si>
+    <t>toyhouse-xlp</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>yangqi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 540200196@qq.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alimbeko@zoho.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alimbekovk10@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anyea14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>Yipeng Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chen-yp13@mails.tsinghua.edu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dys14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> evelyn1128@live.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gaochang13@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>顾绍弘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> gush14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> haoyk14@mails.tsinghua.e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> huangxinyi14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> j-wu14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kevin27fly@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> liq14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> liqz14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lisy14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> liujiahu14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lkw14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ltf14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lu-sh14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mtl14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nrc14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qian-wang14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shanz14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sjy14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sq-liu14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thu_2015_xlp_team@163.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thu_2015_xlp_teamc@126.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wang-ly13@mails.tsinghu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wang-ly13@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xiao-14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xxh792823179@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yhg14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yq14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yu-chen@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yu-chen14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zdt14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>Zhang Hang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zh199111@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zhouhc14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zhouyz14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zhuzl14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zzs14@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>THU_XLP_maxiaojian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THU_XLP_hwz</t>
+  </si>
+  <si>
+    <t>Toyhouse Studio</t>
+  </si>
+  <si>
+    <t>Transaction_amount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remaining_Balance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points_for_money</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total_Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Num_of_Actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Num_Tasks_Created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Num_Tasks_Finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Num_Tasks_Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Num_Posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Num_Files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git_Name_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git_Num_Files_Changed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git_Num_Lines_Added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git_Num_Lines_Deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git_Num_Merges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git_Num_Commits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,9 +1082,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,16 +1121,73 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -445,13 +1195,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -460,7 +1227,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -475,11 +1242,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <indexedColors>
@@ -847,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1324"/>
+  <dimension ref="A1:C1335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A1211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1329" sqref="A1329:A1335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15424,7 +16253,129 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1325" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1325" s="4">
+        <v>42033.356944444444</v>
+      </c>
+      <c r="C1325" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1326" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1326" s="4">
+        <v>42031.294444444444</v>
+      </c>
+      <c r="C1326" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1327" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1327" s="4">
+        <v>42030.799305555556</v>
+      </c>
+      <c r="C1327" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1328" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1328" s="4">
+        <v>42030.539583333331</v>
+      </c>
+      <c r="C1328" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1329" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1329" s="4">
+        <v>42030.810416666667</v>
+      </c>
+      <c r="C1329" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1330" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1330" s="4">
+        <v>42030.757638888892</v>
+      </c>
+      <c r="C1330" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1331" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1331" s="4">
+        <v>42030.545138888891</v>
+      </c>
+      <c r="C1331" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1332" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1332" s="4">
+        <v>42030.511805555558</v>
+      </c>
+      <c r="C1332" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1333" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1333" s="4">
+        <v>42030.454861111109</v>
+      </c>
+      <c r="C1333" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1334" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1334" s="4">
+        <v>42030.454861111109</v>
+      </c>
+      <c r="C1334" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1335" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1335" s="4">
+        <v>42030.441666666666</v>
+      </c>
+      <c r="C1335" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A1328"/>
   <sortState ref="A1:C1323">
     <sortCondition ref="B1"/>
   </sortState>
@@ -15435,9 +16386,2121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="21.625" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" s="19">
+        <v>5</v>
+      </c>
+      <c r="L2" s="19">
+        <v>9</v>
+      </c>
+      <c r="M2" s="19">
+        <v>6</v>
+      </c>
+      <c r="N2" s="19">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>6</v>
+      </c>
+      <c r="P2" s="24">
+        <v>4132.46</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>462.6</v>
+      </c>
+      <c r="R2" s="25">
+        <v>143</v>
+      </c>
+      <c r="S2" s="23">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" s="19">
+        <v>5</v>
+      </c>
+      <c r="L3" s="19">
+        <v>246</v>
+      </c>
+      <c r="M3" s="19">
+        <v>145</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>31</v>
+      </c>
+      <c r="P3" s="24">
+        <v>233</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>417.5</v>
+      </c>
+      <c r="R3" s="25">
+        <v>65</v>
+      </c>
+      <c r="S3" s="23">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="19">
+        <v>8</v>
+      </c>
+      <c r="L4" s="19">
+        <v>9</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1</v>
+      </c>
+      <c r="N4" s="19">
+        <v>2</v>
+      </c>
+      <c r="O4" s="19">
+        <v>5</v>
+      </c>
+      <c r="P4" s="24">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>345</v>
+      </c>
+      <c r="R4" s="25">
+        <v>45</v>
+      </c>
+      <c r="S4" s="23">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" s="19">
+        <v>2</v>
+      </c>
+      <c r="L5" s="19">
+        <v>2</v>
+      </c>
+      <c r="M5" s="19">
+        <v>2</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="24">
+        <v>244.5</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>301.5</v>
+      </c>
+      <c r="R5" s="25">
+        <v>43</v>
+      </c>
+      <c r="S5" s="23">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" s="19">
+        <v>8</v>
+      </c>
+      <c r="L6" s="19">
+        <v>416</v>
+      </c>
+      <c r="M6" s="19">
+        <v>515</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>50</v>
+      </c>
+      <c r="P6" s="24">
+        <v>706</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>140.5</v>
+      </c>
+      <c r="R6" s="25">
+        <v>40</v>
+      </c>
+      <c r="S6" s="23">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" s="19">
+        <v>12</v>
+      </c>
+      <c r="L7" s="19">
+        <v>167</v>
+      </c>
+      <c r="M7" s="19">
+        <v>1</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>12</v>
+      </c>
+      <c r="P7" s="24">
+        <v>418.45</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="R7" s="25">
+        <v>23</v>
+      </c>
+      <c r="S7" s="23">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>14</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" s="19">
+        <v>1</v>
+      </c>
+      <c r="L8" s="19">
+        <v>2</v>
+      </c>
+      <c r="M8" s="19">
+        <v>1</v>
+      </c>
+      <c r="N8" s="19">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2</v>
+      </c>
+      <c r="P8" s="24">
+        <v>396.5</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>200</v>
+      </c>
+      <c r="R8" s="25">
+        <v>38</v>
+      </c>
+      <c r="S8" s="23">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" s="19">
+        <v>3</v>
+      </c>
+      <c r="L9" s="19">
+        <v>122</v>
+      </c>
+      <c r="M9" s="19">
+        <v>92</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>13</v>
+      </c>
+      <c r="P9" s="24">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>434</v>
+      </c>
+      <c r="R9" s="25">
+        <v>60</v>
+      </c>
+      <c r="S9" s="23">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" s="19">
+        <v>1</v>
+      </c>
+      <c r="L10" s="19">
+        <v>1</v>
+      </c>
+      <c r="M10" s="19">
+        <v>1</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="24">
+        <v>284</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>229.1</v>
+      </c>
+      <c r="R10" s="25">
+        <v>40</v>
+      </c>
+      <c r="S10" s="23">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="R11" s="25">
+        <v>38</v>
+      </c>
+      <c r="S11" s="23">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5">
+        <v>119</v>
+      </c>
+      <c r="D12" s="5">
+        <v>53</v>
+      </c>
+      <c r="E12" s="5">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>10</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" s="19">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19">
+        <v>481</v>
+      </c>
+      <c r="M12" s="19">
+        <v>117</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>2</v>
+      </c>
+      <c r="P12" s="24">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="R12" s="25">
+        <v>45</v>
+      </c>
+      <c r="S12" s="23">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" s="19">
+        <v>2</v>
+      </c>
+      <c r="L13" s="19">
+        <v>3</v>
+      </c>
+      <c r="M13" s="19">
+        <v>3</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>2</v>
+      </c>
+      <c r="P13" s="24">
+        <v>94.03</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>214.03</v>
+      </c>
+      <c r="R13" s="25">
+        <v>30</v>
+      </c>
+      <c r="S13" s="23">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" s="19">
+        <v>2</v>
+      </c>
+      <c r="L14" s="19">
+        <v>2</v>
+      </c>
+      <c r="M14" s="19">
+        <v>2</v>
+      </c>
+      <c r="N14" s="19">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>2</v>
+      </c>
+      <c r="P14" s="24">
+        <v>556</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>203.23</v>
+      </c>
+      <c r="R14" s="25">
+        <v>50</v>
+      </c>
+      <c r="S14" s="23">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>6</v>
+      </c>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" s="19">
+        <v>65</v>
+      </c>
+      <c r="L15" s="19">
+        <v>104714</v>
+      </c>
+      <c r="M15" s="19">
+        <v>1494</v>
+      </c>
+      <c r="N15" s="19">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>36</v>
+      </c>
+      <c r="P15" s="24">
+        <v>507.5</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>141.5</v>
+      </c>
+      <c r="R15" s="25">
+        <v>35</v>
+      </c>
+      <c r="S15" s="23">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>9</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" s="19">
+        <v>4</v>
+      </c>
+      <c r="L16" s="19">
+        <v>301</v>
+      </c>
+      <c r="M16" s="19">
+        <v>17</v>
+      </c>
+      <c r="N16" s="19">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>7</v>
+      </c>
+      <c r="P16" s="24">
+        <v>260</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>342.5</v>
+      </c>
+      <c r="R16" s="25">
+        <v>55</v>
+      </c>
+      <c r="S16" s="23">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" s="19">
+        <v>7</v>
+      </c>
+      <c r="L17" s="19">
+        <v>19</v>
+      </c>
+      <c r="M17" s="19">
+        <v>13</v>
+      </c>
+      <c r="N17" s="19">
+        <v>3</v>
+      </c>
+      <c r="O17" s="5">
+        <v>2</v>
+      </c>
+      <c r="P17" s="24">
+        <v>1059</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>365</v>
+      </c>
+      <c r="R17" s="25">
+        <v>93</v>
+      </c>
+      <c r="S17" s="23">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" s="19">
+        <v>3</v>
+      </c>
+      <c r="L18" s="19">
+        <v>69</v>
+      </c>
+      <c r="M18" s="19">
+        <v>2</v>
+      </c>
+      <c r="N18" s="19">
+        <v>2</v>
+      </c>
+      <c r="O18" s="5">
+        <v>8</v>
+      </c>
+      <c r="P18" s="24">
+        <v>653</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>199</v>
+      </c>
+      <c r="R18" s="25">
+        <v>48</v>
+      </c>
+      <c r="S18" s="23">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>9</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="19">
+        <v>15</v>
+      </c>
+      <c r="L19" s="19">
+        <v>565</v>
+      </c>
+      <c r="M19" s="19">
+        <v>34</v>
+      </c>
+      <c r="N19" s="19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <v>17</v>
+      </c>
+      <c r="P19" s="24">
+        <v>268</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>68</v>
+      </c>
+      <c r="R19" s="25">
+        <v>18</v>
+      </c>
+      <c r="S19" s="23">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="19">
+        <v>5</v>
+      </c>
+      <c r="L20" s="19">
+        <v>979</v>
+      </c>
+      <c r="M20" s="19">
+        <v>1006</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>36</v>
+      </c>
+      <c r="P20" s="24">
+        <v>1252.5</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>217.5</v>
+      </c>
+      <c r="R20" s="25">
+        <v>80</v>
+      </c>
+      <c r="S20" s="23">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5">
+        <v>145</v>
+      </c>
+      <c r="D21" s="5">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5">
+        <v>73</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>25</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="24">
+        <v>197.75</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>119.55</v>
+      </c>
+      <c r="R21" s="25">
+        <v>20</v>
+      </c>
+      <c r="S21" s="23">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="19">
+        <v>3</v>
+      </c>
+      <c r="L22" s="19">
+        <v>8</v>
+      </c>
+      <c r="M22" s="19">
+        <v>8</v>
+      </c>
+      <c r="N22" s="19">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>4</v>
+      </c>
+      <c r="P22" s="24">
+        <v>336.17</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="R22" s="25">
+        <v>10</v>
+      </c>
+      <c r="S22" s="23">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="5">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>15</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>4</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="19">
+        <v>3</v>
+      </c>
+      <c r="L23" s="19">
+        <v>75</v>
+      </c>
+      <c r="M23" s="19">
+        <v>2</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>3</v>
+      </c>
+      <c r="P23" s="24">
+        <v>835</v>
+      </c>
+      <c r="Q23" s="24">
+        <v>85</v>
+      </c>
+      <c r="R23" s="25">
+        <v>38</v>
+      </c>
+      <c r="S23" s="23">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" s="19">
+        <v>3</v>
+      </c>
+      <c r="L24" s="19">
+        <v>43</v>
+      </c>
+      <c r="M24" s="19">
+        <v>20</v>
+      </c>
+      <c r="N24" s="19">
+        <v>2</v>
+      </c>
+      <c r="O24" s="5">
+        <v>5</v>
+      </c>
+      <c r="P24" s="24">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>232</v>
+      </c>
+      <c r="R24" s="25">
+        <v>30</v>
+      </c>
+      <c r="S24" s="23">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="5">
+        <v>223</v>
+      </c>
+      <c r="D25" s="5">
+        <v>88</v>
+      </c>
+      <c r="E25" s="5">
+        <v>29</v>
+      </c>
+      <c r="F25" s="5">
+        <v>77</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>29</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="19">
+        <v>3</v>
+      </c>
+      <c r="L25" s="19">
+        <v>69</v>
+      </c>
+      <c r="M25" s="19">
+        <v>30</v>
+      </c>
+      <c r="N25" s="19">
+        <v>2</v>
+      </c>
+      <c r="O25" s="5">
+        <v>4</v>
+      </c>
+      <c r="P25" s="24">
+        <v>217.5</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>102.5</v>
+      </c>
+      <c r="R25" s="25">
+        <v>20</v>
+      </c>
+      <c r="S25" s="23">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>11</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" s="19">
+        <v>6</v>
+      </c>
+      <c r="L26" s="19">
+        <v>164</v>
+      </c>
+      <c r="M26" s="19">
+        <v>78</v>
+      </c>
+      <c r="N26" s="19">
+        <v>3</v>
+      </c>
+      <c r="O26" s="5">
+        <v>25</v>
+      </c>
+      <c r="P26" s="24">
+        <v>549.5</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>444.5</v>
+      </c>
+      <c r="R26" s="25">
+        <v>80</v>
+      </c>
+      <c r="S26" s="23">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" s="19">
+        <v>3</v>
+      </c>
+      <c r="L27" s="19">
+        <v>3</v>
+      </c>
+      <c r="M27" s="19">
+        <v>3</v>
+      </c>
+      <c r="N27" s="19">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>2</v>
+      </c>
+      <c r="P27" s="24">
+        <v>1160.7550000000001</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>364.58499999999998</v>
+      </c>
+      <c r="R27" s="25">
+        <v>98</v>
+      </c>
+      <c r="S27" s="23">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" s="19">
+        <v>2</v>
+      </c>
+      <c r="L28" s="19">
+        <v>3</v>
+      </c>
+      <c r="M28" s="19">
+        <v>3</v>
+      </c>
+      <c r="N28" s="19">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <v>2</v>
+      </c>
+      <c r="P28" s="24">
+        <v>103</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>341</v>
+      </c>
+      <c r="R28" s="25">
+        <v>45</v>
+      </c>
+      <c r="S28" s="23">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29" s="19">
+        <v>1</v>
+      </c>
+      <c r="L29" s="19">
+        <v>2</v>
+      </c>
+      <c r="M29" s="19">
+        <v>2</v>
+      </c>
+      <c r="N29" s="19">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <v>1</v>
+      </c>
+      <c r="P29" s="24">
+        <v>439.64</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>149.63999999999999</v>
+      </c>
+      <c r="R29" s="25">
+        <v>30</v>
+      </c>
+      <c r="S29" s="23">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30" s="19">
+        <v>1</v>
+      </c>
+      <c r="L30" s="19">
+        <v>1</v>
+      </c>
+      <c r="M30" s="19">
+        <v>1</v>
+      </c>
+      <c r="N30" s="19">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" s="24">
+        <v>486</v>
+      </c>
+      <c r="Q30" s="24">
+        <v>243.2</v>
+      </c>
+      <c r="R30" s="25">
+        <v>45</v>
+      </c>
+      <c r="S30" s="23">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19">
+        <v>2</v>
+      </c>
+      <c r="M31" s="19">
+        <v>2</v>
+      </c>
+      <c r="N31" s="19">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>1</v>
+      </c>
+      <c r="P31" s="24">
+        <v>293.5</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>507.77499999999998</v>
+      </c>
+      <c r="R31" s="25">
+        <v>85</v>
+      </c>
+      <c r="S31" s="23">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="5">
+        <v>74</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5">
+        <v>13</v>
+      </c>
+      <c r="F32" s="5">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>9</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32" s="19">
+        <v>10</v>
+      </c>
+      <c r="L32" s="19">
+        <v>671</v>
+      </c>
+      <c r="M32" s="19">
+        <v>304</v>
+      </c>
+      <c r="N32" s="19">
+        <v>11</v>
+      </c>
+      <c r="O32" s="5">
+        <v>48</v>
+      </c>
+      <c r="P32" s="24">
+        <v>224</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>335</v>
+      </c>
+      <c r="R32" s="25">
+        <v>50</v>
+      </c>
+      <c r="S32" s="23">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="5">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>8</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33" s="19">
+        <v>1</v>
+      </c>
+      <c r="L33" s="19">
+        <v>2</v>
+      </c>
+      <c r="M33" s="19">
+        <v>2</v>
+      </c>
+      <c r="N33" s="19">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" s="24">
+        <v>797.85</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>116.75</v>
+      </c>
+      <c r="R33" s="25">
+        <v>45</v>
+      </c>
+      <c r="S33" s="23">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>4</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>6</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34" s="19">
+        <v>3</v>
+      </c>
+      <c r="L34" s="19">
+        <v>229</v>
+      </c>
+      <c r="M34" s="19">
+        <v>170</v>
+      </c>
+      <c r="N34" s="19">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>15</v>
+      </c>
+      <c r="P34" s="24">
+        <v>113</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>434</v>
+      </c>
+      <c r="R34" s="25">
+        <v>60</v>
+      </c>
+      <c r="S34" s="23">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>3</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" s="19">
+        <v>33</v>
+      </c>
+      <c r="L35" s="19">
+        <v>1146</v>
+      </c>
+      <c r="M35" s="19">
+        <v>4</v>
+      </c>
+      <c r="N35" s="19">
+        <v>2</v>
+      </c>
+      <c r="O35" s="5">
+        <v>31</v>
+      </c>
+      <c r="P35" s="24">
+        <v>402</v>
+      </c>
+      <c r="Q35" s="24">
+        <v>86</v>
+      </c>
+      <c r="R35" s="25">
+        <v>23</v>
+      </c>
+      <c r="S35" s="23">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>3</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" s="19">
+        <v>7</v>
+      </c>
+      <c r="L36" s="19">
+        <v>518</v>
+      </c>
+      <c r="M36" s="19">
+        <v>261</v>
+      </c>
+      <c r="N36" s="19">
+        <v>2</v>
+      </c>
+      <c r="O36" s="5">
+        <v>36</v>
+      </c>
+      <c r="P36" s="24">
+        <v>168.2</v>
+      </c>
+      <c r="Q36" s="24">
+        <v>249.1</v>
+      </c>
+      <c r="R36" s="25">
+        <v>35</v>
+      </c>
+      <c r="S36" s="23">
+        <v>862</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C41:C1048576 C1:C39">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection sqref="A1:A95"/>
     </sheetView>
   </sheetViews>
@@ -15922,4 +18985,3608 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="N3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="N14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="N18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="N19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="N20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="N21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="N28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="N29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="N31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="N33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="N34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="N35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="N36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="N37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I38" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="N38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I39" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="N39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I40" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="N40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I41" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="N41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I42" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="N42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J43" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="N43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I44" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="N44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I45" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="N45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I46" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="N46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I47" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="N47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I48" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="N48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I49" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="N49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I50" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="N50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I51" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="N51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I52" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="N52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="N53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="N54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="N55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="N56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="N57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="N58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="N59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="N60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G73">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M37" sqref="H2:M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="5"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="19">
+        <v>57</v>
+      </c>
+      <c r="C2" s="19">
+        <v>3147</v>
+      </c>
+      <c r="D2" s="19">
+        <v>20</v>
+      </c>
+      <c r="E2" s="19">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="19">
+        <v>5</v>
+      </c>
+      <c r="J2" s="19">
+        <v>9</v>
+      </c>
+      <c r="K2" s="19">
+        <v>6</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="19">
+        <v>6</v>
+      </c>
+      <c r="C3" s="19">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="19">
+        <v>5</v>
+      </c>
+      <c r="J3" s="19">
+        <v>246</v>
+      </c>
+      <c r="K3" s="19">
+        <v>145</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="19">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19">
+        <v>67</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="19">
+        <v>8</v>
+      </c>
+      <c r="J4" s="19">
+        <v>9</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19">
+        <v>2</v>
+      </c>
+      <c r="M4" s="19">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2</v>
+      </c>
+      <c r="J5" s="19">
+        <v>2</v>
+      </c>
+      <c r="K5" s="19">
+        <v>2</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19">
+        <v>3</v>
+      </c>
+      <c r="D6" s="19">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="19">
+        <v>8</v>
+      </c>
+      <c r="J6" s="19">
+        <v>416</v>
+      </c>
+      <c r="K6" s="19">
+        <v>515</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>249</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="19">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19">
+        <v>102170</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="19">
+        <v>12</v>
+      </c>
+      <c r="J7" s="19">
+        <v>167</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
+        <v>2</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>265</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19">
+        <v>19</v>
+      </c>
+      <c r="D9" s="19">
+        <v>13</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9" s="19">
+        <v>3</v>
+      </c>
+      <c r="J9" s="19">
+        <v>122</v>
+      </c>
+      <c r="K9" s="19">
+        <v>92</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>13</v>
+      </c>
+      <c r="O9" t="s">
+        <v>250</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>266</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="19">
+        <v>5</v>
+      </c>
+      <c r="C12" s="19">
+        <v>9</v>
+      </c>
+      <c r="D12" s="19">
+        <v>6</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3</v>
+      </c>
+      <c r="J12" s="19">
+        <v>481</v>
+      </c>
+      <c r="K12" s="19">
+        <v>117</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>242</v>
+      </c>
+      <c r="P12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="19">
+        <v>4</v>
+      </c>
+      <c r="C13" s="19">
+        <v>301</v>
+      </c>
+      <c r="D13" s="19">
+        <v>17</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="19">
+        <v>2</v>
+      </c>
+      <c r="J13" s="19">
+        <v>3</v>
+      </c>
+      <c r="K13" s="19">
+        <v>3</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>240</v>
+      </c>
+      <c r="P13" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="19">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19">
+        <v>8</v>
+      </c>
+      <c r="D14" s="19">
+        <v>5</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="19">
+        <v>2</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2</v>
+      </c>
+      <c r="K14" s="19">
+        <v>2</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>243</v>
+      </c>
+      <c r="P14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="19">
+        <v>3</v>
+      </c>
+      <c r="C15" s="19">
+        <v>490</v>
+      </c>
+      <c r="D15" s="19">
+        <v>503</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="19">
+        <v>65</v>
+      </c>
+      <c r="J15" s="19">
+        <v>104714</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1494</v>
+      </c>
+      <c r="L15" s="19">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>36</v>
+      </c>
+      <c r="O15" t="s">
+        <v>267</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="19">
+        <v>3</v>
+      </c>
+      <c r="C16" s="19">
+        <v>8</v>
+      </c>
+      <c r="D16" s="19">
+        <v>8</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="I16" s="19">
+        <v>4</v>
+      </c>
+      <c r="J16" s="19">
+        <v>301</v>
+      </c>
+      <c r="K16" s="19">
+        <v>17</v>
+      </c>
+      <c r="L16" s="19">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>7</v>
+      </c>
+      <c r="O16" t="s">
+        <v>246</v>
+      </c>
+      <c r="P16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19">
+        <v>72</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="I17" s="19">
+        <v>7</v>
+      </c>
+      <c r="J17" s="19">
+        <v>19</v>
+      </c>
+      <c r="K17" s="19">
+        <v>13</v>
+      </c>
+      <c r="L17" s="19">
+        <v>3</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>261</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="19">
+        <v>8</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
+        <v>67</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="I18" s="19">
+        <v>3</v>
+      </c>
+      <c r="J18" s="19">
+        <v>69</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2</v>
+      </c>
+      <c r="L18" s="19">
+        <v>2</v>
+      </c>
+      <c r="M18" s="5">
+        <v>8</v>
+      </c>
+      <c r="O18" t="s">
+        <v>251</v>
+      </c>
+      <c r="P18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="19">
+        <v>15</v>
+      </c>
+      <c r="J19" s="19">
+        <v>565</v>
+      </c>
+      <c r="K19" s="19">
+        <v>34</v>
+      </c>
+      <c r="L19" s="19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
+        <v>268</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="19">
+        <v>2</v>
+      </c>
+      <c r="C20" s="19">
+        <v>68</v>
+      </c>
+      <c r="D20" s="19">
+        <v>29</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="19">
+        <v>5</v>
+      </c>
+      <c r="J20" s="19">
+        <v>979</v>
+      </c>
+      <c r="K20" s="19">
+        <v>1006</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>36</v>
+      </c>
+      <c r="O20" t="s">
+        <v>256</v>
+      </c>
+      <c r="P20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>252</v>
+      </c>
+      <c r="P21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="19">
+        <v>3</v>
+      </c>
+      <c r="C22" s="19">
+        <v>43</v>
+      </c>
+      <c r="D22" s="19">
+        <v>20</v>
+      </c>
+      <c r="E22" s="19">
+        <v>2</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="I22" s="19">
+        <v>3</v>
+      </c>
+      <c r="J22" s="19">
+        <v>8</v>
+      </c>
+      <c r="K22" s="19">
+        <v>8</v>
+      </c>
+      <c r="L22" s="19">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>245</v>
+      </c>
+      <c r="P22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="19">
+        <v>5</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1051</v>
+      </c>
+      <c r="D23" s="19">
+        <v>371</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="19">
+        <v>3</v>
+      </c>
+      <c r="J23" s="19">
+        <v>75</v>
+      </c>
+      <c r="K23" s="19">
+        <v>2</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>236</v>
+      </c>
+      <c r="P23" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>6</v>
+      </c>
+      <c r="O24" t="s">
+        <v>241</v>
+      </c>
+      <c r="P24" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="19">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>26</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" s="19">
+        <v>3</v>
+      </c>
+      <c r="J25" s="19">
+        <v>43</v>
+      </c>
+      <c r="K25" s="19">
+        <v>20</v>
+      </c>
+      <c r="L25" s="19">
+        <v>2</v>
+      </c>
+      <c r="M25" s="5">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>235</v>
+      </c>
+      <c r="P25" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="19">
+        <v>8</v>
+      </c>
+      <c r="C26" s="19">
+        <v>416</v>
+      </c>
+      <c r="D26" s="19">
+        <v>515</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="I26" s="19">
+        <v>3</v>
+      </c>
+      <c r="J26" s="19">
+        <v>69</v>
+      </c>
+      <c r="K26" s="19">
+        <v>30</v>
+      </c>
+      <c r="L26" s="19">
+        <v>2</v>
+      </c>
+      <c r="M26" s="5">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>231</v>
+      </c>
+      <c r="P26" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="19">
+        <v>12</v>
+      </c>
+      <c r="C27" s="19">
+        <v>167</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="I27" s="19">
+        <v>6</v>
+      </c>
+      <c r="J27" s="19">
+        <v>164</v>
+      </c>
+      <c r="K27" s="19">
+        <v>78</v>
+      </c>
+      <c r="L27" s="19">
+        <v>3</v>
+      </c>
+      <c r="M27" s="5">
+        <v>25</v>
+      </c>
+      <c r="O27" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="19">
+        <v>3</v>
+      </c>
+      <c r="C28" s="19">
+        <v>122</v>
+      </c>
+      <c r="D28" s="19">
+        <v>92</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="I28" s="19">
+        <v>3</v>
+      </c>
+      <c r="J28" s="19">
+        <v>3</v>
+      </c>
+      <c r="K28" s="19">
+        <v>3</v>
+      </c>
+      <c r="L28" s="19">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>237</v>
+      </c>
+      <c r="P28" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="19">
+        <v>3</v>
+      </c>
+      <c r="C29" s="19">
+        <v>481</v>
+      </c>
+      <c r="D29" s="19">
+        <v>117</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="I29" s="19">
+        <v>2</v>
+      </c>
+      <c r="J29" s="19">
+        <v>3</v>
+      </c>
+      <c r="K29" s="19">
+        <v>3</v>
+      </c>
+      <c r="L29" s="19">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>253</v>
+      </c>
+      <c r="P29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="19">
+        <v>2</v>
+      </c>
+      <c r="C30" s="19">
+        <v>2</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
+      <c r="J30" s="19">
+        <v>2</v>
+      </c>
+      <c r="K30" s="19">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>254</v>
+      </c>
+      <c r="P30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" s="19">
+        <v>3</v>
+      </c>
+      <c r="C31" s="19">
+        <v>69</v>
+      </c>
+      <c r="D31" s="19">
+        <v>2</v>
+      </c>
+      <c r="E31" s="19">
+        <v>2</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="19">
+        <v>1</v>
+      </c>
+      <c r="J31" s="19">
+        <v>1</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>239</v>
+      </c>
+      <c r="P31" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="19">
+        <v>1</v>
+      </c>
+      <c r="C32" s="19">
+        <v>8</v>
+      </c>
+      <c r="D32" s="19">
+        <v>5</v>
+      </c>
+      <c r="E32" s="19">
+        <v>3</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I32" s="19">
+        <v>1</v>
+      </c>
+      <c r="J32" s="19">
+        <v>2</v>
+      </c>
+      <c r="K32" s="19">
+        <v>2</v>
+      </c>
+      <c r="L32" s="19">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>247</v>
+      </c>
+      <c r="P32" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="19">
+        <v>10</v>
+      </c>
+      <c r="J33" s="19">
+        <v>671</v>
+      </c>
+      <c r="K33" s="19">
+        <v>304</v>
+      </c>
+      <c r="L33" s="19">
+        <v>11</v>
+      </c>
+      <c r="M33" s="5">
+        <v>48</v>
+      </c>
+      <c r="O33" t="s">
+        <v>319</v>
+      </c>
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="19">
+        <v>1</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I34" s="19">
+        <v>1</v>
+      </c>
+      <c r="J34" s="19">
+        <v>2</v>
+      </c>
+      <c r="K34" s="19">
+        <v>2</v>
+      </c>
+      <c r="L34" s="19">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>269</v>
+      </c>
+      <c r="P34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1</v>
+      </c>
+      <c r="C35" s="19">
+        <v>2</v>
+      </c>
+      <c r="D35" s="19">
+        <v>2</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="19">
+        <v>3</v>
+      </c>
+      <c r="J35" s="19">
+        <v>229</v>
+      </c>
+      <c r="K35" s="19">
+        <v>170</v>
+      </c>
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>15</v>
+      </c>
+      <c r="O35" t="s">
+        <v>270</v>
+      </c>
+      <c r="P35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s">
+        <v>234</v>
+      </c>
+      <c r="I36" s="19">
+        <v>33</v>
+      </c>
+      <c r="J36" s="19">
+        <v>1146</v>
+      </c>
+      <c r="K36" s="19">
+        <v>4</v>
+      </c>
+      <c r="L36" s="19">
+        <v>2</v>
+      </c>
+      <c r="M36" s="5">
+        <v>31</v>
+      </c>
+      <c r="O36" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="19">
+        <v>2</v>
+      </c>
+      <c r="C37" s="19">
+        <v>3</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="I37" s="19">
+        <v>7</v>
+      </c>
+      <c r="J37" s="19">
+        <v>518</v>
+      </c>
+      <c r="K37" s="19">
+        <v>261</v>
+      </c>
+      <c r="L37" s="19">
+        <v>2</v>
+      </c>
+      <c r="M37" s="5">
+        <v>36</v>
+      </c>
+      <c r="O37" t="s">
+        <v>257</v>
+      </c>
+      <c r="P37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="19">
+        <v>1</v>
+      </c>
+      <c r="C38" s="19">
+        <v>2</v>
+      </c>
+      <c r="D38" s="19">
+        <v>2</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="O38" t="s">
+        <v>271</v>
+      </c>
+      <c r="P38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="19">
+        <v>5</v>
+      </c>
+      <c r="C39" s="19">
+        <v>246</v>
+      </c>
+      <c r="D39" s="19">
+        <v>145</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>276</v>
+      </c>
+      <c r="P39" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="19">
+        <v>2</v>
+      </c>
+      <c r="C40" s="19">
+        <v>63</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>311</v>
+      </c>
+      <c r="P40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="19">
+        <v>4</v>
+      </c>
+      <c r="C41" s="19">
+        <v>449</v>
+      </c>
+      <c r="D41" s="19">
+        <v>259</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>233</v>
+      </c>
+      <c r="P41" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="19">
+        <v>30</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1143</v>
+      </c>
+      <c r="D42" s="19">
+        <v>2</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>234</v>
+      </c>
+      <c r="P42" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="19">
+        <v>2</v>
+      </c>
+      <c r="C43" s="19">
+        <v>3</v>
+      </c>
+      <c r="D43" s="19">
+        <v>1</v>
+      </c>
+      <c r="E43" s="19">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="19">
+        <v>5</v>
+      </c>
+      <c r="C44" s="19">
+        <v>723</v>
+      </c>
+      <c r="D44" s="19">
+        <v>353</v>
+      </c>
+      <c r="E44" s="19">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="19">
+        <v>65</v>
+      </c>
+      <c r="C45" s="19">
+        <v>104714</v>
+      </c>
+      <c r="D45" s="19">
+        <v>1494</v>
+      </c>
+      <c r="E45" s="19">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P45" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="19">
+        <v>11</v>
+      </c>
+      <c r="C46" s="19">
+        <v>557</v>
+      </c>
+      <c r="D46" s="19">
+        <v>29</v>
+      </c>
+      <c r="E46" s="19">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>48</v>
+      </c>
+      <c r="P46" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="19">
+        <v>2</v>
+      </c>
+      <c r="C47" s="19">
+        <v>489</v>
+      </c>
+      <c r="D47" s="19">
+        <v>503</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>50</v>
+      </c>
+      <c r="P47" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="19">
+        <v>2</v>
+      </c>
+      <c r="C48" s="19">
+        <v>2</v>
+      </c>
+      <c r="D48" s="19">
+        <v>2</v>
+      </c>
+      <c r="E48" s="19">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A49" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="19">
+        <v>5</v>
+      </c>
+      <c r="C49" s="19">
+        <v>156</v>
+      </c>
+      <c r="D49" s="19">
+        <v>73</v>
+      </c>
+      <c r="E49" s="19">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>57</v>
+      </c>
+      <c r="P49" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="19">
+        <v>1</v>
+      </c>
+      <c r="C50" s="19">
+        <v>1</v>
+      </c>
+      <c r="D50" s="19">
+        <v>1</v>
+      </c>
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A51" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="19">
+        <v>10</v>
+      </c>
+      <c r="C51" s="19">
+        <v>671</v>
+      </c>
+      <c r="D51" s="19">
+        <v>304</v>
+      </c>
+      <c r="E51" s="19">
+        <v>11</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A52" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="19">
+        <v>3</v>
+      </c>
+      <c r="C52" s="19">
+        <v>229</v>
+      </c>
+      <c r="D52" s="19">
+        <v>170</v>
+      </c>
+      <c r="E52" s="19">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A53" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="19">
+        <v>3</v>
+      </c>
+      <c r="C53" s="19">
+        <v>3</v>
+      </c>
+      <c r="D53" s="19">
+        <v>2</v>
+      </c>
+      <c r="E53" s="19">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="O2:P53">
+    <sortCondition ref="O2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>